--- a/testeAPI/massaDados/CT001_ConsultaCEP.xlsx
+++ b/testeAPI/massaDados/CT001_ConsultaCEP.xlsx
@@ -25,49 +25,49 @@
     <t>CEP</t>
   </si>
   <si>
+    <t>22021-001</t>
+  </si>
+  <si>
+    <t>CEP_RETORNADO</t>
+  </si>
+  <si>
+    <t>Avenida Atlântica</t>
+  </si>
+  <si>
+    <t>de 1662 a 2172 - lado par</t>
+  </si>
+  <si>
+    <t>COMPLEMENTO</t>
+  </si>
+  <si>
+    <t>LOGRADOURO</t>
+  </si>
+  <si>
+    <t>BAIRRO</t>
+  </si>
+  <si>
+    <t>Copacabana</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>LOCALIDADE</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>IBGE</t>
+  </si>
+  <si>
+    <t>3304557</t>
+  </si>
+  <si>
     <t>22021001</t>
-  </si>
-  <si>
-    <t>22021-001</t>
-  </si>
-  <si>
-    <t>CEP_RETORNADO</t>
-  </si>
-  <si>
-    <t>Avenida Atlântica</t>
-  </si>
-  <si>
-    <t>de 1662 a 2172 - lado par</t>
-  </si>
-  <si>
-    <t>COMPLEMENTO</t>
-  </si>
-  <si>
-    <t>LOGRADOURO</t>
-  </si>
-  <si>
-    <t>BAIRRO</t>
-  </si>
-  <si>
-    <t>Copacabana</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>LOCALIDADE</t>
-  </si>
-  <si>
-    <t>UF</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>IBGE</t>
-  </si>
-  <si>
-    <t>3304557</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,25 +911,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -937,28 +937,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
